--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F24729-E591-4571-A422-39027176CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5BF3C3-DC23-499C-AF56-50E02FFB829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="3270" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
@@ -62,18 +62,12 @@
     <t>magazine_capacity</t>
   </si>
   <si>
-    <t>bullet_deviation</t>
-  </si>
-  <si>
     <t>bullet_damage</t>
   </si>
   <si>
     <t>bullet_velocity</t>
   </si>
   <si>
-    <t>buck_bullet_deviation</t>
-  </si>
-  <si>
     <t>fire_rate</t>
   </si>
   <si>
@@ -282,6 +276,12 @@
   </si>
   <si>
     <t>Steyr AUG A3 5.56x45 457mm</t>
+  </si>
+  <si>
+    <t>barrel_deviation</t>
+  </si>
+  <si>
+    <t>buck_barrel_deviation</t>
   </si>
 </sst>
 </file>
@@ -772,9 +772,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -835,9 +834,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -875,7 +874,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -981,7 +980,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1123,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,116 +1143,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>-12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.91</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-16</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>-16</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
         <v>-0.3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.4</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>262</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>-0.06</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>5000</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
         <v>-1.4266666666666656</v>
       </c>
@@ -1279,42 +1265,42 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
         <v>-9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.84</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>-10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>-10</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
         <v>-0.2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.26</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>179</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
         <v>-0.06</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>1600</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <f t="shared" ref="N4:N36" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>-7.6033333333333344</v>
       </c>
@@ -1341,42 +1327,42 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
         <v>-10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.92</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>-11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>-12</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
         <v>-0.22</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.26</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>191</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
         <v>-0.06</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>2000</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>-8.0633333333333361</v>
       </c>
@@ -1402,42 +1388,42 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
         <v>-7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>-8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>-9</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
         <v>-0.1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.16</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>131</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
         <v>-0.03</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>1800</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>-6.6633333333333331</v>
       </c>
@@ -1463,42 +1449,42 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
         <v>-4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.68</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>-7</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>-7</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>0.1</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>108</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
         <v>-0.03</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>1100</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>-6.4399999999999995</v>
       </c>
@@ -1521,40 +1507,40 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
         <v>-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.69</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>-6</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>-6</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
         <v>-0.05</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.12</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>78</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
         <v>1200</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>-6.6899999999999968</v>
       </c>
@@ -1580,40 +1566,40 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
         <v>-1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.64</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>-5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
         <v>0.05</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.04</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>45</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
         <v>800</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>-6.5</v>
       </c>
@@ -1639,40 +1625,40 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>-4</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>-4</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
         <v>0.08</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.02</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>33</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>-6.49</v>
       </c>
@@ -1692,42 +1678,42 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.62</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>-4</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
         <v>0.1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>-0.01</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>37</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
         <v>-0.03</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>2000</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>-5.4766666666666666</v>
       </c>
@@ -1746,40 +1732,40 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.53</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>-3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>-3</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
         <v>0.15</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>-0.04</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>-34</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
         <v>1200</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>-6.6633333333333349</v>
       </c>
@@ -1802,40 +1788,40 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.5</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>-3</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
         <v>0.2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>-72</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
         <v>1100</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>-6.5400000000000009</v>
       </c>
@@ -1858,40 +1844,40 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.47</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>-1</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
         <v>0.25</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>-0.1</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>-113</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
         <v>1200</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <f t="shared" si="0"/>
         <v>-6.8266666666666662</v>
       </c>
@@ -1914,42 +1900,42 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.34</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>-1</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
         <v>0.4</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>-0.15</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>-266</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
         <v>0.03</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>1300</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>-6.3866666666666676</v>
       </c>
@@ -1969,42 +1955,42 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.24</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
         <v>0.6</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>-0.2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>-450</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>1400</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <f t="shared" si="0"/>
         <v>-6.9</v>
       </c>
@@ -2027,42 +2013,42 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1">
         <v>6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.12</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
         <v>5</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>-0.4</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>-866</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
         <v>0.125</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>2000</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <f t="shared" si="0"/>
         <v>-35.286666666666662</v>
       </c>
@@ -2082,20 +2068,20 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2105,40 +2091,40 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1">
         <v>-9</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.86</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>-3</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
         <v>-0.2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>0.24</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>179</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
         <v>2500</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <f>C19-D19*20-E19*0.8-F19*0.6-H19*5+I19*10+J19/300</f>
         <v>-18.803333333333331</v>
       </c>
@@ -2154,40 +2140,40 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1">
         <v>-1</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.68</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>0.02</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>33</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <f>C20-D20*20-E20*0.8-F20*0.6-H20*5+I20*10+J20/300</f>
         <v>-17.89</v>
       </c>
@@ -2203,40 +2189,40 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>4</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
         <v>0.2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>-0.06</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>-92</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
         <v>1500</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <f>C21-D21*20-E21*0.8-F21*0.6-H21*5+I21*10+J21/300</f>
         <v>-16.706666666666671</v>
       </c>
@@ -2252,40 +2238,40 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>4</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
         <v>0.2</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>-0.08</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>-109</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
         <v>1000</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <f t="shared" si="0"/>
         <v>-16.763333333333332</v>
       </c>
@@ -2301,20 +2287,20 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2324,40 +2310,40 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1">
         <v>-5</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.73</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>-3</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>-4</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
         <v>-0.1</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>131</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
         <v>1500</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24">
         <f>C24-D24*20-E24*0.8-F24*0.6-H24*5+I24*10+J24/300</f>
         <v>-12.463333333333335</v>
       </c>
@@ -2373,40 +2359,40 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.6</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <v>17</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
         <v>1000</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <f>C25-D25*20-E25*0.8-F25*0.6-H25*5+I25*10+J25/300</f>
         <v>-11.943333333333333</v>
       </c>
@@ -2422,40 +2408,40 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0.47</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>2</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
         <v>0.2</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>-0.08</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>-135</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
         <v>1200</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <f t="shared" si="0"/>
         <v>-11.649999999999999</v>
       </c>
@@ -2471,20 +2457,20 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2494,40 +2480,40 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1">
         <v>-10</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>1.01</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>-8</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>-8</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
         <v>0.1</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>269</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
         <v>2000</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28">
         <f>C28-D28*20-E28*0.8-F28*0.6-H28*5+I28*10+J28/300</f>
         <v>-15.803333333333329</v>
       </c>
@@ -2546,42 +2532,42 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1">
         <v>-4</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>0.76</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>-5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>-5</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2">
-        <v>-0.18</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="I29" s="1">
         <v>0.24</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>179</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
         <v>1000</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <f>C29-D29*20-E29*0.8-F29*0.6-H29*5+I29*10+J29/300</f>
-        <v>-8.303333333333331</v>
+        <v>-8.4533333333333331</v>
       </c>
       <c r="P29">
         <v>0.1</v>
@@ -2595,40 +2581,40 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1">
         <v>-2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>0.69</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>-3</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>-3</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
         <v>-0.08</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>0.16</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>131</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
         <v>750</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <f t="shared" ref="N30:N31" si="3">C30-D30*20-E30*0.8-F30*0.6-H30*5+I30*10+J30/300</f>
         <v>-9.1633333333333304</v>
       </c>
@@ -2644,40 +2630,40 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
         <v>0.63</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>-1</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>-1</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
         <v>0.1</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>79</v>
       </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="3"/>
         <v>-9.9366666666666656</v>
       </c>
@@ -2693,40 +2679,40 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1">
         <v>2</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1">
         <v>0.1</v>
       </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
         <v>10</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
         <v>600</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32">
         <f t="shared" si="0"/>
         <v>-9.4666666666666668</v>
       </c>
@@ -2742,204 +2728,204 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1">
         <v>-1</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>0.08</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>-2</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>-2</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1">
         <v>750</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34">
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
         <v>0.06</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>-1</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>-1</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1">
         <v>1200</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35">
         <f t="shared" si="0"/>
         <v>0.20000000000000007</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
         <v>0.1</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>-1</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1">
         <v>1000</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36">
         <f t="shared" si="0"/>
         <v>-1.4</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="1">
         <v>3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>0.11</v>
       </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <f>C37-D37*20-E37*0.8-F37*0.6-H37*5+I37*10+J37/300</f>
         <v>0.79999999999999982</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38">
         <f>C38-D38*20-E38*0.8-F38*0.6-H38*5+I38*10+J38/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
         <v>-1</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>0.1</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>-3</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>-2</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f>C39-D39*20-E39*0.8-F39*0.6-H39*5+I39*10+J39/300</f>
         <v>0.60000000000000031</v>
       </c>

--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifan/Documents/deadline-balancing/changes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5BF3C3-DC23-499C-AF56-50E02FFB829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F619A4B-317D-AE46-AB42-20C3B248B9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="38640" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>new</t>
   </si>
@@ -86,69 +86,21 @@
     <t>CMMG 24" Fluted AR-15 Rifle Length Gastube 5.56x45</t>
   </si>
   <si>
-    <t>brwnls_a1_m4a1_5.56x45_508mm_govt_r_barrel</t>
-  </si>
-  <si>
     <t>Brownells A1 Government 20" Rifle Length Gastube 5.56x45</t>
   </si>
   <si>
-    <t>brwnls_m4a1_5.56x45_508mm_hbar_r_barrel</t>
-  </si>
-  <si>
     <t>Brownells HBAR 20" Rifle Length Gastube 5.56x45</t>
   </si>
   <si>
-    <t>x_caliber_ar_15_.223wylde_457mm_spiral_6groove_m_barrel</t>
-  </si>
-  <si>
     <t>X-Caliber Custom 18" Spiral 6 Groove Mid Length Gastube .223 Wylde</t>
   </si>
   <si>
-    <t>brwnls_m4a1_5.56x45_406mm_govt_m_barrel</t>
-  </si>
-  <si>
     <t>Brownells Government 16" Mid Length Gastube 5.56x45</t>
   </si>
   <si>
-    <t>brwnls_m4a1_5.56x45_406mm_socom_c_barrel</t>
-  </si>
-  <si>
     <t>Brownells Socom 16" Carbine Length Gastube 5.56x45</t>
   </si>
   <si>
-    <t>colt_m4a1_5.56x45_368mm_socom_c_barrel</t>
-  </si>
-  <si>
-    <t>Colt Socom 14.5" Carbine Length Gastube 5.56x45</t>
-  </si>
-  <si>
-    <t>colt_m4a1_5.56x45_368mm_govt_c_barrel</t>
-  </si>
-  <si>
-    <t>Colt Government 14.5" Carbine Length Gastube 5.56x45</t>
-  </si>
-  <si>
-    <t>colt_m4a1_5.56x45_317mm_govt_c_barrel</t>
-  </si>
-  <si>
-    <t>Colt Government 12.5" Carbine Length Gastube 5.56x45</t>
-  </si>
-  <si>
-    <t>colt_m4a1_5.56x45_267mm_govt_c_barrel</t>
-  </si>
-  <si>
-    <t>Colt Government 10.5" Carbine Length Gastube 5.56x45</t>
-  </si>
-  <si>
-    <t>colt_m4a1_5.56x45_190mm_govt_p_barrel</t>
-  </si>
-  <si>
-    <t>Colt Government 7.5" Pistol Length Gastube 5.56x45</t>
-  </si>
-  <si>
-    <t>veriforce_tactical_ar15_127mm_5.56_nitride_barrel_custom_gastube</t>
-  </si>
-  <si>
     <t>Vertiforce Tactical AR15 5in 5.56 Nitride Barrel Custom Gastube</t>
   </si>
   <si>
@@ -158,75 +110,15 @@
     <t>Custom 2in AR15 Barrel</t>
   </si>
   <si>
-    <t>ballistic_advantage_ar15_modern_series_5.56x45_292mm_govt_c_barrel</t>
-  </si>
-  <si>
     <t>Ballistic Advantage Modern Series Government 11.5" Carbine Length Gastube 5.56x45</t>
   </si>
   <si>
     <t>irl price</t>
   </si>
   <si>
-    <t>kac_ks1_5.56x45_348mm_heavy_dimpled_m_barrel</t>
-  </si>
-  <si>
     <t>KAC KS-1 (L403A1) Heavy Dimpled 13.7" Mid Length Gastube 5.56x45</t>
   </si>
   <si>
-    <t>jp_enterprises_5b_gasblock</t>
-  </si>
-  <si>
-    <t>JP Enterprises 5B</t>
-  </si>
-  <si>
-    <t>daniel_defense_mk12_low_profile_gasblock</t>
-  </si>
-  <si>
-    <t>Daniel Defense MK12 Low Profile</t>
-  </si>
-  <si>
-    <t>windham_weaponry_railed_ar15_gasblock</t>
-  </si>
-  <si>
-    <t>Windham Weaponry Rail Gas Block</t>
-  </si>
-  <si>
-    <t>colt_m4fs_gasblock</t>
-  </si>
-  <si>
-    <t>Colt M4 Standard</t>
-  </si>
-  <si>
-    <t>hk416_269mm_barrel</t>
-  </si>
-  <si>
-    <t>10.6 Inch 5.56 HK416</t>
-  </si>
-  <si>
-    <t>hk416_279mm_barrel</t>
-  </si>
-  <si>
-    <t>11 Inch 5.56 HK416</t>
-  </si>
-  <si>
-    <t>hk416_368mm_barrel</t>
-  </si>
-  <si>
-    <t>14.5 Inch 5.56 HK416</t>
-  </si>
-  <si>
-    <t>hk416_508mm_barrel</t>
-  </si>
-  <si>
-    <t>20 Inch 5.56 HK416</t>
-  </si>
-  <si>
-    <t>hk416_lowprofile_gasblock</t>
-  </si>
-  <si>
-    <t>HK416 Low Profile Gas Block</t>
-  </si>
-  <si>
     <t>base</t>
   </si>
   <si>
@@ -282,6 +174,132 @@
   </si>
   <si>
     <t>buck_barrel_deviation</t>
+  </si>
+  <si>
+    <t>kf_416c_9.0i_barrel</t>
+  </si>
+  <si>
+    <t>KF416C 9.0"</t>
+  </si>
+  <si>
+    <t>kf_416d_10.4i_barrel</t>
+  </si>
+  <si>
+    <t>KF416D 10.4"</t>
+  </si>
+  <si>
+    <t>kf_416a5_11i_barrel</t>
+  </si>
+  <si>
+    <t>KF416A5 11"</t>
+  </si>
+  <si>
+    <t>kf_416a5_12.5i_barrel</t>
+  </si>
+  <si>
+    <t>KF416A5 12.5"</t>
+  </si>
+  <si>
+    <t>kf_416d_14.5i_barrel</t>
+  </si>
+  <si>
+    <t>KF416D 14.5"</t>
+  </si>
+  <si>
+    <t>kf_416a5_14.5i_barrel</t>
+  </si>
+  <si>
+    <t>KF416A5 14.5"</t>
+  </si>
+  <si>
+    <t>kf_416d_16.5i_barrel</t>
+  </si>
+  <si>
+    <t>KF416D 16.5"</t>
+  </si>
+  <si>
+    <t>kf_416a5_16.5i_barrel</t>
+  </si>
+  <si>
+    <t>KF416A5 16.5"</t>
+  </si>
+  <si>
+    <t>kf_416d_20i_barrel</t>
+  </si>
+  <si>
+    <t>KF416D 20"</t>
+  </si>
+  <si>
+    <t>kf_416a5_20i_barrel</t>
+  </si>
+  <si>
+    <t>KF416A5 20"</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>whtnls_a1_m4a1_5.56x45_508mm_govt_r_barrel</t>
+  </si>
+  <si>
+    <t>whtnls_m4a1_5.56x45_508mm_hbar_r_barrel</t>
+  </si>
+  <si>
+    <t>ex_call_ar_15_.223wylde_457mm_spiral_6groove_m_barrel</t>
+  </si>
+  <si>
+    <t>whtnls_m4a1_5.56x45_406mm_govt_m_barrel</t>
+  </si>
+  <si>
+    <t>whtnls_m4a1_5.56x45_406mm_socom_c_barrel</t>
+  </si>
+  <si>
+    <t>hart_m4a1_5.56x45_368mm_socom_c_barrel</t>
+  </si>
+  <si>
+    <t>Hart Socom 14.5" Carbine Length Gastube 5.56x45</t>
+  </si>
+  <si>
+    <t>hart_m4a1_5.56x45_368mm_govt_c_barrel</t>
+  </si>
+  <si>
+    <t>Hart Government 14.5" Carbine Length Gastube 5.56x45</t>
+  </si>
+  <si>
+    <t>pac_ks1_5.56x45_348mm_heavy_dimpled_m_barrel</t>
+  </si>
+  <si>
+    <t>hart_m4a1_5.56x45_317mm_govt_c_barrel</t>
+  </si>
+  <si>
+    <t>Hart Government 12.5" Carbine Length Gastube 5.56x45</t>
+  </si>
+  <si>
+    <t>primabarrels_ar15_modern_series_5.56x45_292mm_govt_c_barrel</t>
+  </si>
+  <si>
+    <t>hart_m4a1_5.56x45_267mm_govt_c_barrel</t>
+  </si>
+  <si>
+    <t>Hart Government 10.5" Carbine Length Gastube 5.56x45</t>
+  </si>
+  <si>
+    <t>hart_m4a1_5.56x45_190mm_govt_p_barrel</t>
+  </si>
+  <si>
+    <t>Hart Government 7.5" Pistol Length Gastube 5.56x45</t>
+  </si>
+  <si>
+    <t>quix_tacticals_ar15_127mm_5.56_nitride_barrel_custom_gastube</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>old weight</t>
+  </si>
+  <si>
+    <t>new weight</t>
   </si>
 </sst>
 </file>
@@ -1130,24 +1148,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="126" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="22" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="25" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -1179,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -1191,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
@@ -1199,49 +1218,59 @@
       <c r="R2" t="s">
         <v>14</v>
       </c>
+      <c r="S2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
       <c r="U2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>-12</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3">
+        <v>0.97</v>
+      </c>
+      <c r="E3">
         <v>-16</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>-16</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>-0.3</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3">
+        <v>-0.32</v>
+      </c>
+      <c r="I3">
         <v>0.4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>262</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>-0.06</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>5000</v>
       </c>
       <c r="N3">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>-1.4266666666666656</v>
+        <v>-2.5266666666666655</v>
       </c>
       <c r="P3">
         <v>0.18</v>
@@ -1250,59 +1279,68 @@
         <v>24</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>ROUND(Q3*0.035+P3+R3, 2)</f>
+        <v>1.02</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="U3">
+        <f>0.06+0.037*Q3+T3+R3</f>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="V3">
+        <f>0+(Q3-14.5)*-0.045</f>
+        <v>-0.42749999999999999</v>
+      </c>
+      <c r="X3">
+        <v>349.95</v>
+      </c>
+      <c r="Y3">
+        <f>X3*6</f>
+        <v>2099.6999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>-9</v>
+      </c>
+      <c r="D4">
+        <v>0.84</v>
+      </c>
+      <c r="E4">
+        <v>-10</v>
+      </c>
+      <c r="F4">
+        <v>-10</v>
+      </c>
+      <c r="H4">
+        <v>-0.24</v>
+      </c>
+      <c r="I4">
+        <v>0.26</v>
+      </c>
+      <c r="J4">
+        <v>179</v>
+      </c>
+      <c r="L4">
         <v>-0.06</v>
       </c>
-      <c r="S3">
-        <f>ROUND(Q3*0.033+P3+R3, 2)</f>
-        <v>0.91</v>
-      </c>
-      <c r="U3">
-        <v>349.95</v>
-      </c>
-      <c r="V3">
-        <f>U3*6</f>
-        <v>2099.6999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-10</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>-0.2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="J4" s="1">
-        <v>179</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
-        <v>-0.06</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>1600</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N36" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>-7.6033333333333344</v>
+        <f t="shared" ref="N4:N39" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <v>-7.4033333333333351</v>
       </c>
       <c r="P4">
         <v>0.18</v>
@@ -1311,60 +1349,69 @@
         <v>20</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S32" si="1">ROUND(Q4*0.033+P4+R4, 2)</f>
-        <v>0.84</v>
+        <f t="shared" ref="S4:S17" si="1">ROUND(Q4*0.035+P4+R4, 2)</f>
+        <v>0.88</v>
+      </c>
+      <c r="T4">
+        <v>0.04</v>
       </c>
       <c r="U4">
+        <f t="shared" ref="U4:U38" si="2">0.06+0.037*Q4+T4+R4</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V34" si="3">0+(Q4-14.5)*-0.045</f>
+        <v>-0.2475</v>
+      </c>
+      <c r="X4">
         <v>344.99</v>
       </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V17" si="2">U4*6</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y17" si="4">X4*6</f>
         <v>2069.94</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <f>S7/S4</f>
-        <v>0.80952380952380965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
+        <v>0.80681818181818177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>-10</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5">
+        <v>0.94</v>
+      </c>
+      <c r="E5">
         <v>-11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>-12</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>-0.22</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5">
+        <v>-0.26</v>
+      </c>
+      <c r="I5">
         <v>0.26</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>191</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>-0.06</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>2000</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>-8.0633333333333361</v>
+        <v>-8.2633333333333301</v>
       </c>
       <c r="P5">
         <v>0.18</v>
@@ -1373,59 +1420,68 @@
         <v>20</v>
       </c>
       <c r="R5">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.98</v>
+      </c>
+      <c r="T5">
+        <v>0.04</v>
       </c>
       <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>-0.2475</v>
+      </c>
+      <c r="X5">
         <v>349.99</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="2"/>
+      <c r="Y5">
+        <f t="shared" si="4"/>
         <v>2099.94</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>-7</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-8</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6">
+        <v>0.72</v>
+      </c>
+      <c r="E6">
         <v>-9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="F6">
+        <v>-9</v>
+      </c>
+      <c r="H6">
+        <v>-0.15</v>
+      </c>
+      <c r="I6">
         <v>0.16</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>131</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>-0.03</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>1800</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>-6.6633333333333331</v>
+        <v>-6.0133333333333345</v>
       </c>
       <c r="P6">
         <v>0.15</v>
@@ -1438,55 +1494,64 @@
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.74</v>
+      </c>
+      <c r="T6">
+        <v>0.03</v>
       </c>
       <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>-0.1575</v>
+      </c>
+      <c r="X6">
         <v>372</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="2"/>
+      <c r="Y6">
+        <f t="shared" si="4"/>
         <v>2232</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
         <v>-4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0.68</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>-7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>-7</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7">
+        <v>-0.05</v>
+      </c>
+      <c r="I7">
         <v>0.1</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>108</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>-0.03</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>1100</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>-6.4399999999999995</v>
+        <v>-6.1899999999999995</v>
       </c>
       <c r="P7">
         <v>0.15</v>
@@ -1496,53 +1561,61 @@
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>0.68</v>
+        <v>0.71</v>
+      </c>
+      <c r="T7">
+        <v>0.03</v>
       </c>
       <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0.68199999999999994</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>-6.7500000000000004E-2</v>
+      </c>
+      <c r="X7">
         <v>329.99</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="2"/>
+      <c r="Y7">
+        <f t="shared" si="4"/>
         <v>1979.94</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
         <v>-3</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8">
+        <v>0.71</v>
+      </c>
+      <c r="E8">
         <v>-6</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>-6</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <v>-0.05</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I8">
         <v>0.12</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>78</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>1200</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>-6.6899999999999968</v>
+        <v>-6.9899999999999993</v>
       </c>
       <c r="P8">
         <v>0.12</v>
@@ -1555,53 +1628,61 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>0.69</v>
+        <v>0.72</v>
+      </c>
+      <c r="T8">
+        <v>0.02</v>
       </c>
       <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>-6.7500000000000004E-2</v>
+      </c>
+      <c r="X8">
         <v>279.99</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="2"/>
+      <c r="Y8">
+        <f t="shared" si="4"/>
         <v>1679.94</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9">
+        <v>0.65</v>
+      </c>
+      <c r="E9">
         <v>-5</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>-5</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9">
+        <v>-0.02</v>
+      </c>
+      <c r="I9">
         <v>0.04</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>45</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>800</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>-6.5</v>
+        <v>-6.35</v>
       </c>
       <c r="P9">
         <v>0.12</v>
@@ -1614,53 +1695,61 @@
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>0.64</v>
+        <v>0.67</v>
+      </c>
+      <c r="T9">
+        <v>0.02</v>
       </c>
       <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0.65650000000000008</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>349</v>
       </c>
-      <c r="V9">
-        <f t="shared" si="2"/>
+      <c r="Y9">
+        <f t="shared" si="4"/>
         <v>2094</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="1">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.61</v>
+      </c>
+      <c r="E10">
         <v>-4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>-4</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0.02</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>33</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>-6.49</v>
+        <v>-6.2899999999999991</v>
       </c>
       <c r="P10">
         <v>0.12</v>
@@ -1670,52 +1759,61 @@
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.63</v>
+      </c>
+      <c r="T10">
+        <v>0.02</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0.61650000000000005</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11">
+        <v>0.61</v>
+      </c>
+      <c r="E11">
         <v>-5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>-4</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11">
+        <v>0.03</v>
+      </c>
+      <c r="I11">
         <v>-0.01</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>37</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>-0.03</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>2000</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>-5.4766666666666666</v>
+        <v>-4.9266666666666659</v>
       </c>
       <c r="P11">
         <v>0.15</v>
@@ -1728,46 +1826,54 @@
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="T11">
+        <v>0.03</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0.6169</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12">
+        <v>0.54</v>
+      </c>
+      <c r="E12">
         <v>-3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>-3</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12">
+        <v>0.09</v>
+      </c>
+      <c r="I12">
         <v>-0.04</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>-34</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>1200</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>-6.6633333333333349</v>
+        <v>-6.5633333333333344</v>
       </c>
       <c r="P12">
         <v>0.12</v>
@@ -1777,53 +1883,61 @@
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T12">
+        <v>0.02</v>
       </c>
       <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="X12">
         <v>338</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="2"/>
+      <c r="Y12">
+        <f t="shared" si="4"/>
         <v>2028</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0.5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>-2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>-3</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13">
+        <v>0.13</v>
+      </c>
+      <c r="I13">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>-72</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>1100</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>-6.5400000000000009</v>
+        <v>-6.1900000000000013</v>
       </c>
       <c r="P13">
         <v>0.12</v>
@@ -1833,53 +1947,61 @@
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.52</v>
+      </c>
+      <c r="T13">
+        <v>0.02</v>
       </c>
       <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="X13">
         <v>155</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="2"/>
+      <c r="Y13">
+        <f t="shared" si="4"/>
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0.47</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>-1</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H14">
+        <v>0.18</v>
+      </c>
+      <c r="I14">
         <v>-0.1</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>-113</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>1200</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>-6.8266666666666662</v>
+        <v>-6.4766666666666666</v>
       </c>
       <c r="P14">
         <v>0.12</v>
@@ -1889,55 +2011,64 @@
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
-        <v>0.47</v>
+        <v>0.49</v>
+      </c>
+      <c r="T14">
+        <v>0.02</v>
       </c>
       <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0.46849999999999997</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="X14">
         <v>299</v>
       </c>
-      <c r="V14">
-        <f t="shared" si="2"/>
+      <c r="Y14">
+        <f t="shared" si="4"/>
         <v>1794</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15">
+        <v>0.35</v>
+      </c>
+      <c r="E15">
         <v>-1</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15">
         <v>-0.15</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>-266</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>0.03</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>1300</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>-6.3866666666666676</v>
+        <v>-6.0866666666666669</v>
       </c>
       <c r="P15">
         <v>0.09</v>
@@ -1947,52 +2078,61 @@
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>0.34</v>
+        <v>0.35</v>
+      </c>
+      <c r="T15">
+        <v>0.01</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0.34749999999999998</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.315</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0.24</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H16">
+        <v>0.4</v>
+      </c>
+      <c r="I16">
         <v>-0.2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>-450</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>6.3E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>1400</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>-6.9</v>
+        <v>-5.9</v>
       </c>
       <c r="P16">
         <v>7.0000000000000007E-2</v>
@@ -2002,50 +2142,59 @@
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.25</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
       </c>
       <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0.245</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="X16">
         <v>149.94999999999999</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="2"/>
+      <c r="Y16">
+        <f t="shared" si="4"/>
         <v>899.69999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0.12</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>-0.4</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>-866</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>0.125</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>2000</v>
       </c>
       <c r="N17">
@@ -2058,805 +2207,1024 @@
       <c r="Q17">
         <v>2</v>
       </c>
+      <c r="R17">
+        <v>-0.01</v>
+      </c>
       <c r="S17">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0.12400000000000001</v>
       </c>
       <c r="V17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="N18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1">
-        <v>-9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-3</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1">
-        <v>-0.2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="J19" s="1">
-        <v>179</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1">
-        <v>2500</v>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>0.65249999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.4</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0.25</v>
+      </c>
+      <c r="I19">
+        <v>-0.12</v>
+      </c>
+      <c r="J19">
+        <v>-140</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
       </c>
       <c r="N19">
-        <f>C19-D19*20-E19*0.8-F19*0.6-H19*5+I19*10+J19/300</f>
-        <v>-18.803333333333331</v>
+        <f t="shared" si="0"/>
+        <v>-11.116666666666665</v>
       </c>
       <c r="P19">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>0.01</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="E20" s="1">
+        <f>ROUND(Q19*0.033+P19+R19, 2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0.40299999999999997</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>0.2475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="D20">
+        <v>0.46</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0.18</v>
+      </c>
+      <c r="I20">
+        <v>-0.09</v>
+      </c>
+      <c r="J20">
+        <v>-100</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>-11.133333333333335</v>
+      </c>
+      <c r="P20">
+        <v>0.04</v>
+      </c>
+      <c r="Q20">
+        <v>10.4</v>
+      </c>
+      <c r="R20">
         <v>0.02</v>
       </c>
-      <c r="J20" s="1">
-        <v>33</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f>C20-D20*20-E20*0.8-F20*0.6-H20*5+I20*10+J20/300</f>
-        <v>-17.89</v>
-      </c>
-      <c r="P20">
-        <v>0.2</v>
-      </c>
-      <c r="Q20">
-        <v>14.5</v>
-      </c>
       <c r="S20">
-        <f t="shared" si="1"/>
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1">
+        <f>ROUND(Q20*0.033+P49+R20, 2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>0.46479999999999999</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>0.18449999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>-0.06</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-92</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1">
-        <v>1500</v>
+      <c r="D21">
+        <v>0.47</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.15</v>
+      </c>
+      <c r="I21">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J21">
+        <v>-80</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
       </c>
       <c r="N21">
-        <f>C21-D21*20-E21*0.8-F21*0.6-H21*5+I21*10+J21/300</f>
-        <v>-16.706666666666671</v>
+        <f t="shared" si="0"/>
+        <v>-10.516666666666666</v>
       </c>
       <c r="P21">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="Q21">
         <v>11</v>
       </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
       <c r="S21">
-        <f t="shared" si="1"/>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+        <f>ROUND(Q21*0.033+P50+R21, 2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0.46699999999999997</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>0.1575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-0.08</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-109</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.52</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.08</v>
+      </c>
+      <c r="I22">
+        <v>-0.03</v>
+      </c>
+      <c r="J22">
+        <v>-30</v>
+      </c>
+      <c r="M22">
         <v>1000</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>-16.763333333333332</v>
+        <v>-11.600000000000001</v>
       </c>
       <c r="P22">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="Q22">
-        <v>10.6</v>
+        <v>12.5</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="1"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+        <f>ROUND(Q22*0.033+P51+R22, 2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.65</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.03</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-12.533333333333333</v>
+      </c>
+      <c r="P23">
+        <v>0.04</v>
+      </c>
+      <c r="Q23">
+        <v>14.5</v>
+      </c>
+      <c r="R23">
+        <v>0.05</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1">
-        <v>-5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="E24" s="1">
+        <f>ROUND(Q23*0.033+P52+R23, 2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>0.64650000000000007</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.62</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>-0.02</v>
+      </c>
+      <c r="I24">
+        <v>0.03</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>-11.833333333333334</v>
+      </c>
+      <c r="P24">
+        <v>0.04</v>
+      </c>
+      <c r="Q24">
+        <v>14.5</v>
+      </c>
+      <c r="R24">
+        <v>0.02</v>
+      </c>
+      <c r="S24">
+        <f>ROUND(Q24*0.033+P53+R24, 2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
         <v>-3</v>
       </c>
-      <c r="F24" s="1">
-        <v>-4</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1">
+      <c r="D25">
+        <v>0.72</v>
+      </c>
+      <c r="E25">
+        <v>-2</v>
+      </c>
+      <c r="F25">
+        <v>-2</v>
+      </c>
+      <c r="H25">
+        <v>-0.08</v>
+      </c>
+      <c r="I25">
+        <v>0.11</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>-12.766666666666666</v>
+      </c>
+      <c r="P25">
+        <v>0.04</v>
+      </c>
+      <c r="Q25">
+        <v>16.5</v>
+      </c>
+      <c r="R25">
+        <v>0.05</v>
+      </c>
+      <c r="S25">
+        <f>ROUND(Q25*0.033+P54+R25, 2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>0.72049999999999992</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="3"/>
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>-3</v>
+      </c>
+      <c r="D26">
+        <v>0.69</v>
+      </c>
+      <c r="E26">
+        <v>-2</v>
+      </c>
+      <c r="F26">
+        <v>-2</v>
+      </c>
+      <c r="H26">
         <v>-0.1</v>
       </c>
-      <c r="I24" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J24" s="1">
-        <v>131</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>1500</v>
-      </c>
-      <c r="N24">
-        <f>C24-D24*20-E24*0.8-F24*0.6-H24*5+I24*10+J24/300</f>
-        <v>-12.463333333333335</v>
-      </c>
-      <c r="P24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q24">
-        <v>17.992100000000001</v>
-      </c>
-      <c r="S24">
-        <f>ROUND(Q24*0.033+P24+R24, 2)</f>
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>17</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1">
+      <c r="I26">
+        <v>0.11</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="M26">
         <v>1000</v>
-      </c>
-      <c r="N25">
-        <f>C25-D25*20-E25*0.8-F25*0.6-H25*5+I25*10+J25/300</f>
-        <v>-11.943333333333333</v>
-      </c>
-      <c r="P25">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q25">
-        <v>13.9764</v>
-      </c>
-      <c r="S25">
-        <f>ROUND(Q25*0.033+P25+R25, 2)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I26" s="1">
-        <v>-0.08</v>
-      </c>
-      <c r="J26" s="1">
-        <v>-135</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1">
-        <v>1200</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>-11.649999999999999</v>
+        <v>-12.066666666666665</v>
       </c>
       <c r="P26">
-        <v>0.14000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>16.5</v>
+      </c>
+      <c r="R26">
+        <v>0.02</v>
       </c>
       <c r="S26">
-        <f t="shared" si="1"/>
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+        <f>ROUND(Q26*0.033+P55+R26, 2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>0.69049999999999989</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>-7</v>
+      </c>
+      <c r="D27">
+        <v>0.85</v>
+      </c>
+      <c r="E27">
+        <v>-5</v>
+      </c>
+      <c r="F27">
+        <v>-5</v>
+      </c>
+      <c r="H27">
+        <v>-0.24</v>
+      </c>
+      <c r="I27">
+        <v>0.25</v>
+      </c>
+      <c r="J27">
+        <v>190</v>
+      </c>
+      <c r="M27">
+        <v>2000</v>
+      </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-12.666666666666668</v>
+      </c>
+      <c r="P27">
+        <v>0.04</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+      <c r="R27">
+        <v>0.05</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="1">
-        <v>-10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="E28" s="1">
-        <v>-8</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-8</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J28" s="1">
-        <v>269</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1">
+        <f>ROUND(Q27*0.033+P56+R27, 2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="3"/>
+        <v>-0.2475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28">
+        <v>-7</v>
+      </c>
+      <c r="D28">
+        <v>0.82</v>
+      </c>
+      <c r="E28">
+        <v>-5</v>
+      </c>
+      <c r="F28">
+        <v>-5</v>
+      </c>
+      <c r="H28">
+        <v>-0.26</v>
+      </c>
+      <c r="I28">
+        <v>0.25</v>
+      </c>
+      <c r="J28">
+        <v>190</v>
+      </c>
+      <c r="M28">
         <v>2000</v>
       </c>
       <c r="N28">
-        <f>C28-D28*20-E28*0.8-F28*0.6-H28*5+I28*10+J28/300</f>
-        <v>-15.803333333333329</v>
+        <f t="shared" si="0"/>
+        <v>-11.966666666666665</v>
       </c>
       <c r="P28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="Q28">
-        <v>24.409400000000002</v>
+        <v>20</v>
       </c>
       <c r="R28">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="E29" s="1">
-        <v>-5</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-5</v>
-      </c>
+        <f>ROUND(Q28*0.033+P57+R28, 2)</f>
+        <v>0.68</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>-0.2475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
-        <v>-0.15</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="J29" s="1">
-        <v>179</v>
-      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1">
-        <v>1000</v>
-      </c>
+      <c r="M29" s="1"/>
       <c r="N29">
-        <f>C29-D29*20-E29*0.8-F29*0.6-H29*5+I29*10+J29/300</f>
-        <v>-8.4533333333333331</v>
-      </c>
-      <c r="P29">
-        <v>0.1</v>
-      </c>
-      <c r="Q29">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="1"/>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+        <f>ROUND(Q29*0.033+P29+R29, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f>0.06+0.037*Q29+T29+R29</f>
+        <v>0.06</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="3"/>
+        <v>0.65249999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="D30" s="1">
-        <v>0.69</v>
+        <v>1.01</v>
       </c>
       <c r="E30" s="1">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="F30" s="1">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
-        <v>-0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I30" s="1">
-        <v>0.16</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J30" s="1">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N31" si="3">C30-D30*20-E30*0.8-F30*0.6-H30*5+I30*10+J30/300</f>
-        <v>-9.1633333333333304</v>
+        <f t="shared" si="0"/>
+        <v>-15.803333333333329</v>
       </c>
       <c r="P30">
         <v>0.1</v>
       </c>
       <c r="Q30">
-        <v>17.992100000000001</v>
+        <v>24.409400000000002</v>
+      </c>
+      <c r="R30">
+        <v>0.1</v>
       </c>
       <c r="S30">
-        <f t="shared" si="1"/>
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+        <f>ROUND(Q30*0.033+P30+R30, 2)</f>
+        <v>1.01</v>
+      </c>
+      <c r="U30">
+        <f>0.06+0.037*Q30+T30+R30</f>
+        <v>1.0631478000000001</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>-0.44592300000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D31" s="1">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="E31" s="1">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F31" s="1">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="I31" s="1">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="J31" s="1">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N31">
-        <f t="shared" si="3"/>
-        <v>-9.9366666666666656</v>
+        <f t="shared" si="0"/>
+        <v>-8.8033333333333346</v>
       </c>
       <c r="P31">
         <v>0.1</v>
       </c>
       <c r="Q31">
-        <v>16.023599999999998</v>
+        <v>20</v>
       </c>
       <c r="S31">
-        <f t="shared" si="1"/>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <f>ROUND(Q31*0.033+P31+R31, 2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="U31">
+        <f>0.06+0.037*Q31+T31+R31</f>
+        <v>0.8</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="3"/>
+        <v>-0.2475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D32" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1">
-        <v>0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J32" s="1">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
-        <v>-9.4666666666666668</v>
+        <f t="shared" ref="N32:N33" si="5">C32-D32*20-E32*0.8-F32*0.6-H32*5+I32*10+J32/300</f>
+        <v>-9.4133333333333322</v>
       </c>
       <c r="P32">
         <v>0.1</v>
       </c>
       <c r="Q32">
-        <v>13.779500000000001</v>
+        <v>17.992100000000001</v>
       </c>
       <c r="S32">
-        <f t="shared" si="1"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+        <f>ROUND(Q32*0.033+P32+R32, 2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="U32">
+        <f>0.06+0.037*Q32+T32+R32</f>
+        <v>0.72570770000000007</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="3"/>
+        <v>-0.15714450000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1</v>
+      </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="H33" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>79</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
       <c r="N33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-10.036666666666665</v>
+      </c>
+      <c r="P33">
+        <v>0.1</v>
+      </c>
+      <c r="Q33">
+        <v>16.023599999999998</v>
+      </c>
+      <c r="S33">
+        <f>ROUND(Q33*0.033+P33+R33, 2)</f>
+        <v>0.63</v>
+      </c>
+      <c r="U33">
+        <f>0.06+0.037*Q33+T33+R33</f>
+        <v>0.65287319999999993</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="3"/>
+        <v>-6.8561999999999915E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>0.08</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E34" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H34" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-1</v>
-      </c>
+        <f>C34-D34*20-E34*0.8-F34*0.6-H34*5+I34*10+J34/300</f>
+        <v>-9.5166666666666657</v>
+      </c>
+      <c r="P34">
+        <v>0.1</v>
+      </c>
+      <c r="Q34">
+        <v>13.779500000000001</v>
+      </c>
+      <c r="S34">
+        <f>ROUND(Q34*0.033+P34+R34, 2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U34">
+        <f>0.06+0.037*Q34+T34+R34</f>
+        <v>0.56984149999999989</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="3"/>
+        <v>3.2422499999999972E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1">
-        <v>1200</v>
-      </c>
+      <c r="M35" s="1"/>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35:S39" si="6">ROUND(Q35*0.033+P35+R35, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D36" s="1">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F36" s="1">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="H36" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J36" s="1">
+        <v>131</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <f>C36-D36*20-E36*0.8-F36*0.6-H36*5+I36*10+J36/300</f>
+        <v>-12.463333333333335</v>
+      </c>
+      <c r="P36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q36">
+        <v>17.992100000000001</v>
+      </c>
+      <c r="S36">
+        <f>ROUND(Q36*0.033+P36+R36, 2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0.72570770000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>0.11</v>
+        <v>0.6</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2865,70 +3233,219 @@
         <v>0</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>17</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N37">
         <f>C37-D37*20-E37*0.8-F37*0.6-H37*5+I37*10+J37/300</f>
-        <v>0.79999999999999982</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+        <v>-11.943333333333333</v>
+      </c>
+      <c r="P37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q37">
+        <v>13.9764</v>
+      </c>
+      <c r="S37">
+        <f>ROUND(Q37*0.033+P37+R37, 2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="2"/>
+        <v>0.57712680000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="H38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-0.08</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-135</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1">
+        <v>1200</v>
+      </c>
       <c r="N38">
-        <f>C38-D38*20-E38*0.8-F38*0.6-H38*5+I38*10+J38/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>-3</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>-11.649999999999999</v>
+      </c>
+      <c r="P38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>0.47</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="2"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
+      <c r="M39" s="1"/>
       <c r="N39">
-        <f>C39-D39*20-E39*0.8-F39*0.6-H39*5+I39*10+J39/300</f>
-        <v>0.60000000000000031</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
